--- a/outputs/reconciled_data_ThaiNamthip.xlsx
+++ b/outputs/reconciled_data_ThaiNamthip.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W119"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,31 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>INV.no Check</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Inv. Date Check</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>VAT_diff</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>IncludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>null_report</t>
         </is>
       </c>
@@ -655,7 +680,22 @@
       <c r="V2" t="n">
         <v>1534.67</v>
       </c>
-      <c r="W2" t="inlineStr"/>
+      <c r="W2" t="b">
+        <v>1</v>
+      </c>
+      <c r="X2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -754,7 +794,22 @@
       <c r="V3" t="n">
         <v>980.3</v>
       </c>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -853,7 +908,22 @@
       <c r="V4" t="n">
         <v>908.88</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="b">
+        <v>1</v>
+      </c>
+      <c r="X4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -952,7 +1022,22 @@
       <c r="V5" t="n">
         <v>395.9</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="b">
+        <v>1</v>
+      </c>
+      <c r="X5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1051,7 +1136,22 @@
       <c r="V6" t="n">
         <v>818.45</v>
       </c>
-      <c r="W6" t="inlineStr"/>
+      <c r="W6" t="b">
+        <v>1</v>
+      </c>
+      <c r="X6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1150,7 +1250,22 @@
       <c r="V7" t="n">
         <v>330.6</v>
       </c>
-      <c r="W7" t="inlineStr"/>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1249,7 +1364,22 @@
       <c r="V8" t="n">
         <v>1274.69</v>
       </c>
-      <c r="W8" t="inlineStr"/>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1348,7 +1478,22 @@
       <c r="V9" t="n">
         <v>118.77</v>
       </c>
-      <c r="W9" t="inlineStr"/>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1447,7 +1592,22 @@
       <c r="V10" t="n">
         <v>1628.95</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1546,7 +1706,22 @@
       <c r="V11" t="n">
         <v>661.2</v>
       </c>
-      <c r="W11" t="inlineStr"/>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1645,7 +1820,22 @@
       <c r="V12" t="n">
         <v>395.9</v>
       </c>
-      <c r="W12" t="inlineStr"/>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1744,7 +1934,22 @@
       <c r="V13" t="n">
         <v>2884.39</v>
       </c>
-      <c r="W13" t="inlineStr"/>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-18.71</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1843,7 +2048,22 @@
       <c r="V14" t="n">
         <v>680.95</v>
       </c>
-      <c r="W14" t="inlineStr"/>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1942,7 +2162,22 @@
       <c r="V15" t="n">
         <v>1475.23</v>
       </c>
-      <c r="W15" t="inlineStr"/>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2041,7 +2276,22 @@
       <c r="V16" t="n">
         <v>1029.34</v>
       </c>
-      <c r="W16" t="inlineStr"/>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2140,7 +2390,22 @@
       <c r="V17" t="n">
         <v>2655.95</v>
       </c>
-      <c r="W17" t="inlineStr"/>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2239,7 +2504,22 @@
       <c r="V18" t="n">
         <v>720.0700000000001</v>
       </c>
-      <c r="W18" t="inlineStr"/>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2338,7 +2618,22 @@
       <c r="V19" t="n">
         <v>237.54</v>
       </c>
-      <c r="W19" t="inlineStr"/>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2437,7 +2732,22 @@
       <c r="V20" t="n">
         <v>1365.36</v>
       </c>
-      <c r="W20" t="inlineStr"/>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2536,7 +2846,22 @@
       <c r="V21" t="n">
         <v>645.3</v>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2635,7 +2960,22 @@
       <c r="V22" t="n">
         <v>791.8</v>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2734,7 +3074,22 @@
       <c r="V23" t="n">
         <v>314.7</v>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2833,7 +3188,22 @@
       <c r="V24" t="n">
         <v>1187.7</v>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2932,7 +3302,22 @@
       <c r="V25" t="n">
         <v>527.54</v>
       </c>
-      <c r="W25" t="inlineStr"/>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3031,7 +3416,22 @@
       <c r="V26" t="n">
         <v>1255.17</v>
       </c>
-      <c r="W26" t="inlineStr"/>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+      <c r="X26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3130,7 +3530,22 @@
       <c r="V27" t="n">
         <v>267.55</v>
       </c>
-      <c r="W27" t="inlineStr"/>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3229,7 +3644,22 @@
       <c r="V28" t="n">
         <v>1180.4</v>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3328,7 +3758,22 @@
       <c r="V29" t="n">
         <v>118.77</v>
       </c>
-      <c r="W29" t="inlineStr"/>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3427,7 +3872,22 @@
       <c r="V30" t="n">
         <v>196.94</v>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3526,7 +3986,22 @@
       <c r="V31" t="n">
         <v>791.8</v>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="b">
+        <v>1</v>
+      </c>
+      <c r="X31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3625,7 +4100,22 @@
       <c r="V32" t="n">
         <v>1433.07</v>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="b">
+        <v>1</v>
+      </c>
+      <c r="X32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3724,7 +4214,22 @@
       <c r="V33" t="n">
         <v>2513.97</v>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3823,7 +4328,22 @@
       <c r="V34" t="n">
         <v>118.77</v>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="b">
+        <v>1</v>
+      </c>
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3922,7 +4442,22 @@
       <c r="V35" t="n">
         <v>1754.83</v>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="b">
+        <v>1</v>
+      </c>
+      <c r="X35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4021,7 +4556,22 @@
       <c r="V36" t="n">
         <v>314.7</v>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="b">
+        <v>1</v>
+      </c>
+      <c r="X36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4120,7 +4670,22 @@
       <c r="V37" t="n">
         <v>2010.66</v>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="b">
+        <v>1</v>
+      </c>
+      <c r="X37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4219,7 +4784,22 @@
       <c r="V38" t="n">
         <v>2384.48</v>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="b">
+        <v>1</v>
+      </c>
+      <c r="X38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4318,7 +4898,22 @@
       <c r="V39" t="n">
         <v>3167.2</v>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+      <c r="X39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4417,7 +5012,22 @@
       <c r="V40" t="n">
         <v>118.77</v>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="b">
+        <v>1</v>
+      </c>
+      <c r="X40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4516,7 +5126,22 @@
       <c r="V41" t="n">
         <v>645.3</v>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4615,7 +5240,22 @@
       <c r="V42" t="n">
         <v>720.0700000000001</v>
       </c>
-      <c r="W42" t="inlineStr"/>
+      <c r="W42" t="b">
+        <v>1</v>
+      </c>
+      <c r="X42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4714,7 +5354,22 @@
       <c r="V43" t="n">
         <v>802.66</v>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="b">
+        <v>1</v>
+      </c>
+      <c r="X43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4813,7 +5468,22 @@
       <c r="V44" t="n">
         <v>661.2</v>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="b">
+        <v>1</v>
+      </c>
+      <c r="X44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4912,7 +5582,22 @@
       <c r="V45" t="n">
         <v>330.6</v>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="b">
+        <v>1</v>
+      </c>
+      <c r="X45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5011,7 +5696,22 @@
       <c r="V46" t="n">
         <v>1590.19</v>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="b">
+        <v>1</v>
+      </c>
+      <c r="X46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5110,7 +5810,22 @@
       <c r="V47" t="n">
         <v>645.3</v>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="b">
+        <v>1</v>
+      </c>
+      <c r="X47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5209,7 +5924,22 @@
       <c r="V48" t="n">
         <v>1779.57</v>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+      <c r="X48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5308,7 +6038,22 @@
       <c r="V49" t="n">
         <v>527.54</v>
       </c>
-      <c r="W49" t="inlineStr"/>
+      <c r="W49" t="b">
+        <v>1</v>
+      </c>
+      <c r="X49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5407,7 +6152,22 @@
       <c r="V50" t="n">
         <v>158.36</v>
       </c>
-      <c r="W50" t="inlineStr"/>
+      <c r="W50" t="b">
+        <v>1</v>
+      </c>
+      <c r="X50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5506,7 +6266,22 @@
       <c r="V51" t="n">
         <v>2558.52</v>
       </c>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="b">
+        <v>1</v>
+      </c>
+      <c r="X51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5605,7 +6380,22 @@
       <c r="V52" t="n">
         <v>1495.1</v>
       </c>
-      <c r="W52" t="inlineStr"/>
+      <c r="W52" t="b">
+        <v>1</v>
+      </c>
+      <c r="X52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5704,7 +6494,22 @@
       <c r="V53" t="n">
         <v>1298.35</v>
       </c>
-      <c r="W53" t="inlineStr"/>
+      <c r="W53" t="b">
+        <v>1</v>
+      </c>
+      <c r="X53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5803,7 +6608,22 @@
       <c r="V54" t="n">
         <v>1322.39</v>
       </c>
-      <c r="W54" t="inlineStr"/>
+      <c r="W54" t="b">
+        <v>1</v>
+      </c>
+      <c r="X54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5902,7 +6722,22 @@
       <c r="V55" t="n">
         <v>2341.26</v>
       </c>
-      <c r="W55" t="inlineStr"/>
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+      <c r="X55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6001,7 +6836,22 @@
       <c r="V56" t="n">
         <v>1834.03</v>
       </c>
-      <c r="W56" t="inlineStr"/>
+      <c r="W56" t="b">
+        <v>1</v>
+      </c>
+      <c r="X56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6100,7 +6950,22 @@
       <c r="V57" t="n">
         <v>3341.88</v>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+      <c r="X57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6199,7 +7064,22 @@
       <c r="V58" t="n">
         <v>2038.29</v>
       </c>
-      <c r="W58" t="inlineStr"/>
+      <c r="W58" t="b">
+        <v>1</v>
+      </c>
+      <c r="X58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6298,7 +7178,22 @@
       <c r="V59" t="n">
         <v>989.75</v>
       </c>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6397,7 +7292,22 @@
       <c r="V60" t="n">
         <v>118.77</v>
       </c>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+      <c r="X60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6496,7 +7406,22 @@
       <c r="V61" t="n">
         <v>1039.18</v>
       </c>
-      <c r="W61" t="inlineStr"/>
+      <c r="W61" t="b">
+        <v>1</v>
+      </c>
+      <c r="X61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6595,7 +7520,22 @@
       <c r="V62" t="n">
         <v>395.9</v>
       </c>
-      <c r="W62" t="inlineStr"/>
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+      <c r="X62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6694,7 +7634,22 @@
       <c r="V63" t="n">
         <v>928.75</v>
       </c>
-      <c r="W63" t="inlineStr"/>
+      <c r="W63" t="b">
+        <v>1</v>
+      </c>
+      <c r="X63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6793,7 +7748,22 @@
       <c r="V64" t="n">
         <v>511.64</v>
       </c>
-      <c r="W64" t="inlineStr"/>
+      <c r="W64" t="b">
+        <v>1</v>
+      </c>
+      <c r="X64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6892,7 +7862,22 @@
       <c r="V65" t="n">
         <v>2191.7</v>
       </c>
-      <c r="W65" t="inlineStr"/>
+      <c r="W65" t="b">
+        <v>1</v>
+      </c>
+      <c r="X65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6991,7 +7976,22 @@
       <c r="V66" t="n">
         <v>1141.04</v>
       </c>
-      <c r="W66" t="inlineStr"/>
+      <c r="W66" t="b">
+        <v>1</v>
+      </c>
+      <c r="X66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7090,7 +8090,22 @@
       <c r="V67" t="n">
         <v>724.49</v>
       </c>
-      <c r="W67" t="inlineStr"/>
+      <c r="W67" t="b">
+        <v>1</v>
+      </c>
+      <c r="X67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7189,7 +8204,22 @@
       <c r="V68" t="n">
         <v>1507.84</v>
       </c>
-      <c r="W68" t="inlineStr"/>
+      <c r="W68" t="b">
+        <v>1</v>
+      </c>
+      <c r="X68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7288,7 +8318,22 @@
       <c r="V69" t="n">
         <v>826.34</v>
       </c>
-      <c r="W69" t="inlineStr"/>
+      <c r="W69" t="b">
+        <v>1</v>
+      </c>
+      <c r="X69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7387,7 +8432,22 @@
       <c r="V70" t="n">
         <v>1487.54</v>
       </c>
-      <c r="W70" t="inlineStr"/>
+      <c r="W70" t="b">
+        <v>1</v>
+      </c>
+      <c r="X70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7486,7 +8546,22 @@
       <c r="V71" t="n">
         <v>395.9</v>
       </c>
-      <c r="W71" t="inlineStr"/>
+      <c r="W71" t="b">
+        <v>1</v>
+      </c>
+      <c r="X71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7585,7 +8660,22 @@
       <c r="V72" t="n">
         <v>629.4</v>
       </c>
-      <c r="W72" t="inlineStr"/>
+      <c r="W72" t="b">
+        <v>1</v>
+      </c>
+      <c r="X72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7684,7 +8774,22 @@
       <c r="V73" t="n">
         <v>330.6</v>
       </c>
-      <c r="W73" t="inlineStr"/>
+      <c r="W73" t="b">
+        <v>1</v>
+      </c>
+      <c r="X73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7783,7 +8888,22 @@
       <c r="V74" t="n">
         <v>2828.87</v>
       </c>
-      <c r="W74" t="inlineStr"/>
+      <c r="W74" t="b">
+        <v>1</v>
+      </c>
+      <c r="X74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7882,7 +9002,22 @@
       <c r="V75" t="n">
         <v>1491.13</v>
       </c>
-      <c r="W75" t="inlineStr"/>
+      <c r="W75" t="b">
+        <v>1</v>
+      </c>
+      <c r="X75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7981,7 +9116,22 @@
       <c r="V76" t="n">
         <v>395.9</v>
       </c>
-      <c r="W76" t="inlineStr"/>
+      <c r="W76" t="b">
+        <v>1</v>
+      </c>
+      <c r="X76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8080,7 +9230,22 @@
       <c r="V77" t="n">
         <v>330.6</v>
       </c>
-      <c r="W77" t="inlineStr"/>
+      <c r="W77" t="b">
+        <v>1</v>
+      </c>
+      <c r="X77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8179,7 +9344,22 @@
       <c r="V78" t="n">
         <v>395.9</v>
       </c>
-      <c r="W78" t="inlineStr"/>
+      <c r="W78" t="b">
+        <v>1</v>
+      </c>
+      <c r="X78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8278,7 +9458,22 @@
       <c r="V79" t="n">
         <v>959.99</v>
       </c>
-      <c r="W79" t="inlineStr"/>
+      <c r="W79" t="b">
+        <v>1</v>
+      </c>
+      <c r="X79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -8377,7 +9572,22 @@
       <c r="V80" t="n">
         <v>593.85</v>
       </c>
-      <c r="W80" t="inlineStr"/>
+      <c r="W80" t="b">
+        <v>1</v>
+      </c>
+      <c r="X80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8476,7 +9686,22 @@
       <c r="V81" t="n">
         <v>645.3</v>
       </c>
-      <c r="W81" t="inlineStr"/>
+      <c r="W81" t="b">
+        <v>1</v>
+      </c>
+      <c r="X81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8575,7 +9800,22 @@
       <c r="V82" t="n">
         <v>1306.49</v>
       </c>
-      <c r="W82" t="inlineStr"/>
+      <c r="W82" t="b">
+        <v>1</v>
+      </c>
+      <c r="X82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8674,7 +9914,22 @@
       <c r="V83" t="n">
         <v>314.7</v>
       </c>
-      <c r="W83" t="inlineStr"/>
+      <c r="W83" t="b">
+        <v>1</v>
+      </c>
+      <c r="X83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8773,7 +10028,22 @@
       <c r="V84" t="n">
         <v>267.55</v>
       </c>
-      <c r="W84" t="inlineStr"/>
+      <c r="W84" t="b">
+        <v>1</v>
+      </c>
+      <c r="X84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8872,7 +10142,22 @@
       <c r="V85" t="n">
         <v>2671.85</v>
       </c>
-      <c r="W85" t="inlineStr"/>
+      <c r="W85" t="b">
+        <v>1</v>
+      </c>
+      <c r="X85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8971,7 +10256,22 @@
       <c r="V86" t="n">
         <v>1605.29</v>
       </c>
-      <c r="W86" t="inlineStr"/>
+      <c r="W86" t="b">
+        <v>1</v>
+      </c>
+      <c r="X86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9070,7 +10370,22 @@
       <c r="V87" t="n">
         <v>2215.17</v>
       </c>
-      <c r="W87" t="inlineStr"/>
+      <c r="W87" t="b">
+        <v>1</v>
+      </c>
+      <c r="X87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9169,7 +10484,22 @@
       <c r="V88" t="n">
         <v>2549.37</v>
       </c>
-      <c r="W88" t="inlineStr"/>
+      <c r="W88" t="b">
+        <v>1</v>
+      </c>
+      <c r="X88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9268,7 +10598,22 @@
       <c r="V89" t="n">
         <v>1187.7</v>
       </c>
-      <c r="W89" t="inlineStr"/>
+      <c r="W89" t="b">
+        <v>1</v>
+      </c>
+      <c r="X89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9367,7 +10712,22 @@
       <c r="V90" t="n">
         <v>1172.84</v>
       </c>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="b">
+        <v>1</v>
+      </c>
+      <c r="X90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9466,7 +10826,22 @@
       <c r="V91" t="n">
         <v>3127.66</v>
       </c>
-      <c r="W91" t="inlineStr"/>
+      <c r="W91" t="b">
+        <v>1</v>
+      </c>
+      <c r="X91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9565,7 +10940,22 @@
       <c r="V92" t="n">
         <v>1258.79</v>
       </c>
-      <c r="W92" t="inlineStr"/>
+      <c r="W92" t="b">
+        <v>1</v>
+      </c>
+      <c r="X92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9664,7 +11054,22 @@
       <c r="V93" t="n">
         <v>2101.33</v>
       </c>
-      <c r="W93" t="inlineStr"/>
+      <c r="W93" t="b">
+        <v>1</v>
+      </c>
+      <c r="X93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9763,7 +11168,22 @@
       <c r="V94" t="n">
         <v>237.54</v>
       </c>
-      <c r="W94" t="inlineStr"/>
+      <c r="W94" t="b">
+        <v>1</v>
+      </c>
+      <c r="X94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9862,7 +11282,22 @@
       <c r="V95" t="n">
         <v>1802.23</v>
       </c>
-      <c r="W95" t="inlineStr"/>
+      <c r="W95" t="b">
+        <v>1</v>
+      </c>
+      <c r="X95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9961,7 +11396,22 @@
       <c r="V96" t="n">
         <v>330.6</v>
       </c>
-      <c r="W96" t="inlineStr"/>
+      <c r="W96" t="b">
+        <v>1</v>
+      </c>
+      <c r="X96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10060,7 +11510,22 @@
       <c r="V97" t="n">
         <v>1439.46</v>
       </c>
-      <c r="W97" t="inlineStr"/>
+      <c r="W97" t="b">
+        <v>1</v>
+      </c>
+      <c r="X97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10159,7 +11624,22 @@
       <c r="V98" t="n">
         <v>1093.64</v>
       </c>
-      <c r="W98" t="inlineStr"/>
+      <c r="W98" t="b">
+        <v>1</v>
+      </c>
+      <c r="X98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10258,7 +11738,22 @@
       <c r="V99" t="n">
         <v>991.79</v>
       </c>
-      <c r="W99" t="inlineStr"/>
+      <c r="W99" t="b">
+        <v>1</v>
+      </c>
+      <c r="X99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10357,7 +11852,22 @@
       <c r="V100" t="n">
         <v>330.6</v>
       </c>
-      <c r="W100" t="inlineStr"/>
+      <c r="W100" t="b">
+        <v>1</v>
+      </c>
+      <c r="X100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10456,7 +11966,22 @@
       <c r="V101" t="n">
         <v>645.3</v>
       </c>
-      <c r="W101" t="inlineStr"/>
+      <c r="W101" t="b">
+        <v>1</v>
+      </c>
+      <c r="X101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10555,7 +12080,22 @@
       <c r="V102" t="n">
         <v>1318.22</v>
       </c>
-      <c r="W102" t="inlineStr"/>
+      <c r="W102" t="b">
+        <v>1</v>
+      </c>
+      <c r="X102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10654,7 +12194,22 @@
       <c r="V103" t="n">
         <v>1050.34</v>
       </c>
-      <c r="W103" t="inlineStr"/>
+      <c r="W103" t="b">
+        <v>1</v>
+      </c>
+      <c r="X103" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10753,7 +12308,22 @@
       <c r="V104" t="n">
         <v>395.9</v>
       </c>
-      <c r="W104" t="inlineStr"/>
+      <c r="W104" t="b">
+        <v>1</v>
+      </c>
+      <c r="X104" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10852,7 +12422,22 @@
       <c r="V105" t="n">
         <v>1590.19</v>
       </c>
-      <c r="W105" t="inlineStr"/>
+      <c r="W105" t="b">
+        <v>1</v>
+      </c>
+      <c r="X105" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10951,7 +12536,22 @@
       <c r="V106" t="n">
         <v>158.36</v>
       </c>
-      <c r="W106" t="inlineStr"/>
+      <c r="W106" t="b">
+        <v>1</v>
+      </c>
+      <c r="X106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11050,7 +12650,22 @@
       <c r="V107" t="n">
         <v>314.7</v>
       </c>
-      <c r="W107" t="inlineStr"/>
+      <c r="W107" t="b">
+        <v>1</v>
+      </c>
+      <c r="X107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11149,7 +12764,22 @@
       <c r="V108" t="n">
         <v>197.95</v>
       </c>
-      <c r="W108" t="inlineStr"/>
+      <c r="W108" t="b">
+        <v>1</v>
+      </c>
+      <c r="X108" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -11248,7 +12878,22 @@
       <c r="V109" t="n">
         <v>444.63</v>
       </c>
-      <c r="W109" t="inlineStr"/>
+      <c r="W109" t="b">
+        <v>1</v>
+      </c>
+      <c r="X109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -11347,7 +12992,22 @@
       <c r="V110" t="n">
         <v>118.77</v>
       </c>
-      <c r="W110" t="inlineStr"/>
+      <c r="W110" t="b">
+        <v>1</v>
+      </c>
+      <c r="X110" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -11446,7 +13106,22 @@
       <c r="V111" t="n">
         <v>791.8</v>
       </c>
-      <c r="W111" t="inlineStr"/>
+      <c r="W111" t="b">
+        <v>1</v>
+      </c>
+      <c r="X111" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -11545,7 +13220,22 @@
       <c r="V112" t="n">
         <v>1522.37</v>
       </c>
-      <c r="W112" t="inlineStr"/>
+      <c r="W112" t="b">
+        <v>1</v>
+      </c>
+      <c r="X112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -11644,7 +13334,22 @@
       <c r="V113" t="n">
         <v>892.98</v>
       </c>
-      <c r="W113" t="inlineStr"/>
+      <c r="W113" t="b">
+        <v>1</v>
+      </c>
+      <c r="X113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -11709,7 +13414,16 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr">
+      <c r="W114" t="b">
+        <v>0</v>
+      </c>
+      <c r="X114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -11812,7 +13526,22 @@
       <c r="V115" t="n">
         <v>196.94</v>
       </c>
-      <c r="W115" t="inlineStr"/>
+      <c r="W115" t="b">
+        <v>1</v>
+      </c>
+      <c r="X115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -11911,7 +13640,22 @@
       <c r="V116" t="n">
         <v>1290.59</v>
       </c>
-      <c r="W116" t="inlineStr"/>
+      <c r="W116" t="b">
+        <v>1</v>
+      </c>
+      <c r="X116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12010,7 +13754,22 @@
       <c r="V117" t="n">
         <v>853.97</v>
       </c>
-      <c r="W117" t="inlineStr"/>
+      <c r="W117" t="b">
+        <v>1</v>
+      </c>
+      <c r="X117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>-0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -12073,7 +13832,16 @@
       <c r="V118" t="n">
         <v>3474.51</v>
       </c>
-      <c r="W118" t="inlineStr">
+      <c r="W118" t="b">
+        <v>0</v>
+      </c>
+      <c r="X118" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr">
         <is>
           <t>BASE_Null</t>
         </is>
@@ -12140,7 +13908,16 @@
       <c r="V119" t="n">
         <v>989.75</v>
       </c>
-      <c r="W119" t="inlineStr">
+      <c r="W119" t="b">
+        <v>0</v>
+      </c>
+      <c r="X119" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr">
         <is>
           <t>BASE_Null</t>
         </is>
@@ -12426,7 +14203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12547,6 +14324,31 @@
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
+          <t>INV.no Check</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Inv. Date Check</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>VAT_diff</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>IncludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>null_report</t>
         </is>
       </c>
@@ -12612,7 +14414,16 @@
       <c r="V2" t="n">
         <v>3474.51</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>BASE_Null</t>
         </is>
@@ -12679,7 +14490,16 @@
       <c r="V3" t="n">
         <v>989.75</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>BASE_Null</t>
         </is>
@@ -12696,7 +14516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12816,6 +14636,31 @@
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>INV.no Check</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Inv. Date Check</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ExcludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>VAT_diff</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>IncludeVAT_diff</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>null_report</t>
         </is>
@@ -12884,7 +14729,16 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr">
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>CPFM_Null</t>
         </is>
@@ -12901,7 +14755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12932,31 +14786,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DIFF</t>
+          <t>Matching</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Matching</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
